--- a/src/static/file/data.xlsx
+++ b/src/static/file/data.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
-    <t>Xn</t>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Xi</t>
   </si>
   <si>
     <t>ri</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>000</t>
   </si>
 </sst>
 </file>
@@ -377,98 +386,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>84</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.08400000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>648</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>856</v>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>104</v>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0.08799999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>536</v>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0.536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>992</v>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0.992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>224</v>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>728</v>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>0.728</v>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
